--- a/updatedExcels/S3_EC.xlsx
+++ b/updatedExcels/S3_EC.xlsx
@@ -20157,12 +20157,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -20184,12 +20184,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -20481,12 +20481,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -20508,12 +20508,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -20535,12 +20535,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -20562,12 +20562,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -20589,12 +20589,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -20616,12 +20616,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -20643,12 +20643,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -20670,12 +20670,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -20697,12 +20697,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -20724,12 +20724,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -20859,12 +20859,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -20886,12 +20886,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -21075,12 +21075,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -21102,12 +21102,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -21129,12 +21129,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -21156,12 +21156,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -21183,12 +21183,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -21210,12 +21210,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -21237,12 +21237,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -21345,12 +21345,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -21372,12 +21372,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -21399,12 +21399,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -21426,12 +21426,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -21453,12 +21453,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -21480,12 +21480,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -21507,12 +21507,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -21534,12 +21534,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -21561,12 +21561,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -21615,12 +21615,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -21642,12 +21642,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -21669,12 +21669,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -21696,12 +21696,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -21723,12 +21723,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -21777,12 +21777,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -21804,12 +21804,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -21831,12 +21831,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -21858,12 +21858,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -21885,12 +21885,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -21912,12 +21912,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -21939,12 +21939,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -21966,12 +21966,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -21993,12 +21993,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -22020,12 +22020,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -22047,12 +22047,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -22074,12 +22074,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -22101,12 +22101,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -22155,12 +22155,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -22182,12 +22182,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -22209,12 +22209,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -22236,12 +22236,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -22263,12 +22263,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -22290,12 +22290,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -22317,12 +22317,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -22344,12 +22344,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -22371,12 +22371,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -22398,12 +22398,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -22425,12 +22425,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -22452,12 +22452,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -22479,12 +22479,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -22506,12 +22506,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -22533,12 +22533,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -22560,12 +22560,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -22587,12 +22587,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -22614,12 +22614,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -22641,12 +22641,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -22668,12 +22668,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -22695,12 +22695,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -22722,12 +22722,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -22803,12 +22803,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -22830,12 +22830,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -22857,12 +22857,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -22884,12 +22884,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -22911,12 +22911,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -22938,12 +22938,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -22965,12 +22965,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -22992,12 +22992,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -23019,12 +23019,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -23046,12 +23046,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -23100,12 +23100,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -23127,12 +23127,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -23154,12 +23154,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -23181,12 +23181,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -23208,12 +23208,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -23235,12 +23235,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -23262,12 +23262,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -23289,12 +23289,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -23316,12 +23316,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -23343,12 +23343,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -23370,12 +23370,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -23397,12 +23397,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -23424,12 +23424,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -23451,12 +23451,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -23478,12 +23478,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -23505,12 +23505,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -23559,12 +23559,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -23586,12 +23586,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -23613,12 +23613,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -23640,12 +23640,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -23667,12 +23667,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -23694,12 +23694,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -23748,12 +23748,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -23775,12 +23775,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -23802,12 +23802,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -23829,12 +23829,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -23883,12 +23883,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -23910,12 +23910,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -23937,12 +23937,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -23964,12 +23964,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -23991,12 +23991,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -24018,12 +24018,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -24045,12 +24045,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -24072,12 +24072,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -24099,12 +24099,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -24126,12 +24126,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -24180,12 +24180,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -24207,12 +24207,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -24234,12 +24234,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -24261,12 +24261,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -24315,12 +24315,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -24342,12 +24342,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -24369,12 +24369,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -24396,12 +24396,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -24450,12 +24450,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -24477,12 +24477,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -24504,12 +24504,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -24531,12 +24531,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -24558,12 +24558,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -24585,12 +24585,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -24612,12 +24612,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -24666,12 +24666,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -24693,12 +24693,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -24747,12 +24747,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -24774,12 +24774,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -24801,12 +24801,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -24828,12 +24828,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -24855,12 +24855,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -24882,12 +24882,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -24909,12 +24909,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -24936,12 +24936,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -24963,12 +24963,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -24990,12 +24990,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -25044,12 +25044,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -25071,12 +25071,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -25098,12 +25098,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -25125,12 +25125,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -25152,12 +25152,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -25179,12 +25179,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -25233,12 +25233,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -25260,12 +25260,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -25314,12 +25314,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -25341,12 +25341,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -25368,12 +25368,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -25395,12 +25395,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -25422,12 +25422,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -25476,12 +25476,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -25530,12 +25530,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -25557,12 +25557,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -25584,12 +25584,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -25611,12 +25611,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -25665,12 +25665,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -25692,12 +25692,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -25719,12 +25719,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -25746,12 +25746,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -25773,12 +25773,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -25800,12 +25800,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -25827,12 +25827,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -25854,12 +25854,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -25881,12 +25881,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -25908,12 +25908,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -25935,12 +25935,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -25962,12 +25962,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -25989,12 +25989,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -26016,12 +26016,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -26043,12 +26043,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -26070,12 +26070,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -26097,12 +26097,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -26124,12 +26124,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -26151,12 +26151,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -26178,12 +26178,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -26205,12 +26205,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -26232,12 +26232,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -26259,12 +26259,12 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -26313,12 +26313,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -26340,12 +26340,12 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -26367,12 +26367,12 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -26394,12 +26394,12 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -26421,12 +26421,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -26448,12 +26448,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -26529,12 +26529,12 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -26556,12 +26556,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -26583,12 +26583,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -26610,12 +26610,12 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -26637,12 +26637,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -26664,12 +26664,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -26691,12 +26691,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -26718,12 +26718,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -26772,12 +26772,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -26799,12 +26799,12 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -26826,12 +26826,12 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -26853,12 +26853,12 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -26880,12 +26880,12 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -26907,12 +26907,12 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -26934,12 +26934,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -26961,12 +26961,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -26988,12 +26988,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -27015,12 +27015,12 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -27042,12 +27042,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -27096,12 +27096,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -27123,12 +27123,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -27150,12 +27150,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -27177,12 +27177,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -27204,12 +27204,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -27231,12 +27231,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -27258,12 +27258,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -27285,12 +27285,12 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -27312,12 +27312,12 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -27339,12 +27339,12 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -27420,12 +27420,12 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -27447,12 +27447,12 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -27501,12 +27501,12 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -27528,12 +27528,12 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -27555,12 +27555,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -27582,12 +27582,12 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -27636,12 +27636,12 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -27663,12 +27663,12 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -27690,12 +27690,12 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -27717,12 +27717,12 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -27744,12 +27744,12 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -27771,12 +27771,12 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -27825,12 +27825,12 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -27852,12 +27852,12 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -27879,12 +27879,12 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -27906,12 +27906,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -27933,12 +27933,12 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -27960,12 +27960,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -27987,12 +27987,12 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -28014,12 +28014,12 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -28041,12 +28041,12 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -28068,12 +28068,12 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -28095,12 +28095,12 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -28122,12 +28122,12 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -28149,12 +28149,12 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -28176,12 +28176,12 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -28203,12 +28203,12 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -28230,12 +28230,12 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -28257,12 +28257,12 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -28284,12 +28284,12 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -28311,12 +28311,12 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -28338,12 +28338,12 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -28365,12 +28365,12 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -28419,12 +28419,12 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -28446,12 +28446,12 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -28473,12 +28473,12 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -28500,12 +28500,12 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -28527,12 +28527,12 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -28554,12 +28554,12 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -28581,12 +28581,12 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -28608,12 +28608,12 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -28635,12 +28635,12 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -28662,12 +28662,12 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -28743,12 +28743,12 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -28770,12 +28770,12 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -28797,12 +28797,12 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -28824,12 +28824,12 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -28851,12 +28851,12 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -28905,12 +28905,12 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -28932,12 +28932,12 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -28959,12 +28959,12 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -28986,12 +28986,12 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -29013,12 +29013,12 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -29040,12 +29040,12 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -29067,12 +29067,12 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -29094,12 +29094,12 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -29121,12 +29121,12 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -29148,12 +29148,12 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -29175,12 +29175,12 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -29202,12 +29202,12 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -29229,12 +29229,12 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -29256,12 +29256,12 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -29283,12 +29283,12 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -29310,12 +29310,12 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -29337,12 +29337,12 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -29364,12 +29364,12 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -29391,12 +29391,12 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -29418,12 +29418,12 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -29445,12 +29445,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -29499,12 +29499,12 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -29526,12 +29526,12 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -29553,12 +29553,12 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -29580,12 +29580,12 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -29607,12 +29607,12 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -29634,12 +29634,12 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -29661,12 +29661,12 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -29688,12 +29688,12 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -29715,12 +29715,12 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -29742,12 +29742,12 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -29769,12 +29769,12 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -29796,12 +29796,12 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -29823,12 +29823,12 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -29850,12 +29850,12 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -29877,12 +29877,12 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -29904,12 +29904,12 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -29931,12 +29931,12 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -29958,12 +29958,12 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -29985,12 +29985,12 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -30012,12 +30012,12 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -30039,12 +30039,12 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -30093,12 +30093,12 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -30120,12 +30120,12 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -30147,12 +30147,12 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -30174,12 +30174,12 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -30201,12 +30201,12 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -30228,12 +30228,12 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -30255,12 +30255,12 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -30282,12 +30282,12 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -30309,12 +30309,12 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -30336,12 +30336,12 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -30363,12 +30363,12 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -30390,12 +30390,12 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -30417,12 +30417,12 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -30444,12 +30444,12 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -30471,12 +30471,12 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -30498,12 +30498,12 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -30525,12 +30525,12 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -30552,12 +30552,12 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -30579,12 +30579,12 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -30606,12 +30606,12 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -30633,12 +30633,12 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -30660,12 +30660,12 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -30714,12 +30714,12 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -30741,12 +30741,12 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -30768,12 +30768,12 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -30795,12 +30795,12 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -30822,12 +30822,12 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -30849,12 +30849,12 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -30876,12 +30876,12 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -30903,12 +30903,12 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -30957,12 +30957,12 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -30984,12 +30984,12 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -31011,12 +31011,12 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -31038,12 +31038,12 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -31065,12 +31065,12 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -31146,12 +31146,12 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -31173,12 +31173,12 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -31200,12 +31200,12 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -31227,12 +31227,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -31254,12 +31254,12 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -31281,12 +31281,12 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -31335,12 +31335,12 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -31362,12 +31362,12 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -31389,12 +31389,12 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -31416,12 +31416,12 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -31443,12 +31443,12 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -31470,12 +31470,12 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -31497,12 +31497,12 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -31524,12 +31524,12 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -31551,12 +31551,12 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -31578,12 +31578,12 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -31605,12 +31605,12 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -31659,12 +31659,12 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -31686,12 +31686,12 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -31713,12 +31713,12 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -31794,12 +31794,12 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -31821,12 +31821,12 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -31848,12 +31848,12 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -31902,12 +31902,12 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -31929,12 +31929,12 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -31956,12 +31956,12 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -31983,12 +31983,12 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -32010,12 +32010,12 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -32037,12 +32037,12 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -32064,12 +32064,12 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -32091,12 +32091,12 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -32118,12 +32118,12 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -32145,12 +32145,12 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -32199,12 +32199,12 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -32226,12 +32226,12 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -32253,12 +32253,12 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -32280,12 +32280,12 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -32307,12 +32307,12 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -32334,12 +32334,12 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -32361,12 +32361,12 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -32388,12 +32388,12 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -32415,12 +32415,12 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -32442,12 +32442,12 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -32469,12 +32469,12 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -32496,12 +32496,12 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -32523,12 +32523,12 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -32550,12 +32550,12 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -32577,12 +32577,12 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -32631,12 +32631,12 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -32658,12 +32658,12 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -32685,12 +32685,12 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -32739,12 +32739,12 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -32766,12 +32766,12 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -32793,12 +32793,12 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -32820,12 +32820,12 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -32874,12 +32874,12 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -32901,12 +32901,12 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -32928,12 +32928,12 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -32955,12 +32955,12 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -32982,12 +32982,12 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -33009,12 +33009,12 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -33036,12 +33036,12 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -33063,12 +33063,12 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -33090,12 +33090,12 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -33171,12 +33171,12 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -33198,12 +33198,12 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -33225,12 +33225,12 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -33252,12 +33252,12 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -33279,12 +33279,12 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -33306,12 +33306,12 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -33333,12 +33333,12 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -33360,12 +33360,12 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -33387,12 +33387,12 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -33414,12 +33414,12 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -33441,12 +33441,12 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -33468,12 +33468,12 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -33495,12 +33495,12 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -33522,12 +33522,12 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -33549,12 +33549,12 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -33576,12 +33576,12 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -33603,12 +33603,12 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -33630,12 +33630,12 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -33657,12 +33657,12 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -33684,12 +33684,12 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -33711,12 +33711,12 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -33738,12 +33738,12 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -33765,12 +33765,12 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -33792,12 +33792,12 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -33819,12 +33819,12 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -33846,12 +33846,12 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -33873,12 +33873,12 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -33900,12 +33900,12 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -33927,12 +33927,12 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -33954,12 +33954,12 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -34035,12 +34035,12 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECT205</t>
         </is>
       </c>
     </row>
@@ -34116,12 +34116,12 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -34143,12 +34143,12 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -34170,12 +34170,12 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -34197,12 +34197,12 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -34224,12 +34224,12 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>ECT205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -34251,12 +34251,12 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -34305,12 +34305,12 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -34332,12 +34332,12 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -34359,12 +34359,12 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -34440,12 +34440,12 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -34467,12 +34467,12 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -34521,12 +34521,12 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -34548,12 +34548,12 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -34575,12 +34575,12 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
@@ -34602,12 +34602,12 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -34629,12 +34629,12 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -34656,12 +34656,12 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -34683,12 +34683,12 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -34710,12 +34710,12 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>ECL203</t>
         </is>
       </c>
     </row>
@@ -34737,12 +34737,12 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>ECT203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -34764,12 +34764,12 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>ECL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -34791,12 +34791,12 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>ECT203</t>
         </is>
       </c>
     </row>
@@ -34818,12 +34818,12 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>ECL201</t>
+          <t>ECT201</t>
         </is>
       </c>
     </row>
@@ -34872,12 +34872,12 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>ECT201</t>
+          <t>ECL201</t>
         </is>
       </c>
     </row>
